--- a/public_html/archivos/2012_1021_OFERTA_ACADEMICA.xlsx
+++ b/public_html/archivos/2012_1021_OFERTA_ACADEMICA.xlsx
@@ -13,38 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">POSTGRADO!$A$4:$O$119</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PREGRADO!$A$5:$L$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PREGRADO!$A$5:$K$73</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Flor María Ramón</author>
-  </authors>
-  <commentList>
-    <comment ref="L5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-En caso que la carrera se encuentre vigente para el segundo ciclo del 2013 seleccione "RATIFICADO" caso contrario"NO VIGENTE HABILITADO". Realizar este proceso solo para las carreras de Estado "VIGENTE" (columna k)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="631">
   <si>
     <t>CÓDIGO IES</t>
   </si>
@@ -131,9 +107,6 @@
   </si>
   <si>
     <t>SECRETARÍA NACIONAL DE EDUCACIÓN SUPERIOR, CIENCIA, TECNOLOGÍA E INNOVACIÓN</t>
-  </si>
-  <si>
-    <t>RATIFICAR EL ESTADO DE LA CARRERA PARA EL SEGUNDO CICLO DEL 2013 (PRÓXIMO EXAMEN SNNA)</t>
   </si>
   <si>
     <t>NO VIGENTE HABILITADO</t>
@@ -1946,7 +1919,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1961,12 +1934,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2186,16 +2153,16 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2288,8 +2255,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1933575</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -2778,11 +2745,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2791,53 +2758,50 @@
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="7" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N1" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="N2" s="6" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="M2" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:14" s="5" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2871,28 +2835,25 @@
       <c r="K5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>13</v>
@@ -2901,33 +2862,33 @@
         <v>14</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>122</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>13</v>
@@ -2936,27 +2897,27 @@
         <v>14</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>18</v>
@@ -2971,27 +2932,27 @@
         <v>14</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>18</v>
@@ -3006,33 +2967,33 @@
         <v>14</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J9" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>130</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>13</v>
@@ -3041,27 +3002,27 @@
         <v>14</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>132</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>133</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>26</v>
@@ -3076,27 +3037,27 @@
         <v>14</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>11</v>
@@ -3111,27 +3072,27 @@
         <v>14</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>18</v>
@@ -3146,27 +3107,27 @@
         <v>14</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>18</v>
@@ -3181,27 +3142,27 @@
         <v>14</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>16</v>
@@ -3216,33 +3177,33 @@
         <v>14</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>13</v>
@@ -3251,10 +3212,10 @@
         <v>14</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>15</v>
@@ -3262,16 +3223,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>18</v>
@@ -3286,10 +3247,10 @@
         <v>25</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>22</v>
@@ -3297,22 +3258,22 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>150</v>
-      </c>
       <c r="E18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>13</v>
@@ -3321,10 +3282,10 @@
         <v>14</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>15</v>
@@ -3332,16 +3293,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>16</v>
@@ -3356,7 +3317,7 @@
         <v>25</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="12" t="s">
@@ -3365,16 +3326,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>18</v>
@@ -3389,10 +3350,10 @@
         <v>25</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>22</v>
@@ -3400,16 +3361,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>158</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>18</v>
@@ -3424,10 +3385,10 @@
         <v>25</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>22</v>
@@ -3435,16 +3396,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>18</v>
@@ -3459,10 +3420,10 @@
         <v>25</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>22</v>
@@ -3470,22 +3431,22 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>13</v>
@@ -3494,7 +3455,7 @@
         <v>14</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="12" t="s">
@@ -3503,16 +3464,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>20</v>
@@ -3527,10 +3488,10 @@
         <v>25</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>22</v>
@@ -3538,16 +3499,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>167</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>168</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>11</v>
@@ -3562,10 +3523,10 @@
         <v>25</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>22</v>
@@ -3573,22 +3534,22 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="E26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>13</v>
@@ -3597,7 +3558,7 @@
         <v>14</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="9" t="s">
@@ -3606,22 +3567,22 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>174</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>13</v>
@@ -3630,10 +3591,10 @@
         <v>14</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>15</v>
@@ -3641,22 +3602,22 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>13</v>
@@ -3665,7 +3626,7 @@
         <v>14</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="9" t="s">
@@ -3674,22 +3635,22 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>178</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>13</v>
@@ -3698,7 +3659,7 @@
         <v>14</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="12" t="s">
@@ -3707,16 +3668,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>18</v>
@@ -3731,10 +3692,10 @@
         <v>25</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K30" s="9" t="s">
         <v>22</v>
@@ -3742,16 +3703,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>18</v>
@@ -3766,10 +3727,10 @@
         <v>25</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>22</v>
@@ -3777,16 +3738,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>18</v>
@@ -3801,7 +3762,7 @@
         <v>25</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="9" t="s">
@@ -3810,16 +3771,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C33" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>18</v>
@@ -3834,25 +3795,25 @@
         <v>25</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C34" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>190</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>16</v>
@@ -3867,10 +3828,10 @@
         <v>14</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K34" s="9" t="s">
         <v>15</v>
@@ -3878,22 +3839,22 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C35" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>193</v>
-      </c>
       <c r="E35" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>13</v>
@@ -3902,10 +3863,10 @@
         <v>25</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K35" s="12" t="s">
         <v>22</v>
@@ -3913,16 +3874,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>20</v>
@@ -3937,25 +3898,25 @@
         <v>25</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>16</v>
@@ -3970,25 +3931,25 @@
         <v>25</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>11</v>
@@ -4003,27 +3964,27 @@
         <v>25</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>11</v>
@@ -4038,10 +3999,10 @@
         <v>25</v>
       </c>
       <c r="I39" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="J39" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>201</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>22</v>
@@ -4049,16 +4010,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>16</v>
@@ -4073,10 +4034,10 @@
         <v>25</v>
       </c>
       <c r="I40" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="J40" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="K40" s="9" t="s">
         <v>22</v>
@@ -4084,16 +4045,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>205</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>206</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>20</v>
@@ -4108,10 +4069,10 @@
         <v>25</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>22</v>
@@ -4119,16 +4080,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>20</v>
@@ -4143,10 +4104,10 @@
         <v>25</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K42" s="9" t="s">
         <v>22</v>
@@ -4154,16 +4115,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>20</v>
@@ -4178,27 +4139,27 @@
         <v>25</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>20</v>
@@ -4213,10 +4174,10 @@
         <v>14</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K44" s="9" t="s">
         <v>15</v>
@@ -4224,16 +4185,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>213</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>20</v>
@@ -4248,7 +4209,7 @@
         <v>25</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="12" t="s">
@@ -4257,16 +4218,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C46" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>11</v>
@@ -4281,10 +4242,10 @@
         <v>14</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K46" s="9" t="s">
         <v>15</v>
@@ -4292,16 +4253,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C47" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>18</v>
@@ -4316,10 +4277,10 @@
         <v>14</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>15</v>
@@ -4327,16 +4288,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C48" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>16</v>
@@ -4351,10 +4312,10 @@
         <v>14</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K48" s="9" t="s">
         <v>22</v>
@@ -4362,22 +4323,22 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C49" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>223</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>224</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>13</v>
@@ -4386,10 +4347,10 @@
         <v>14</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>15</v>
@@ -4397,16 +4358,16 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>16</v>
@@ -4421,10 +4382,10 @@
         <v>25</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K50" s="9" t="s">
         <v>22</v>
@@ -4432,22 +4393,22 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>229</v>
-      </c>
       <c r="E51" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>13</v>
@@ -4456,10 +4417,10 @@
         <v>14</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K51" s="12" t="s">
         <v>15</v>
@@ -4467,22 +4428,22 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C52" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>231</v>
-      </c>
       <c r="E52" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>13</v>
@@ -4491,10 +4452,10 @@
         <v>14</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K52" s="9" t="s">
         <v>15</v>
@@ -4502,22 +4463,22 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C53" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>234</v>
-      </c>
       <c r="E53" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>13</v>
@@ -4526,10 +4487,10 @@
         <v>14</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K53" s="12" t="s">
         <v>15</v>
@@ -4537,16 +4498,16 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>237</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>16</v>
@@ -4561,10 +4522,10 @@
         <v>14</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K54" s="9" t="s">
         <v>22</v>
@@ -4572,16 +4533,16 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C55" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>239</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>240</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>18</v>
@@ -4596,10 +4557,10 @@
         <v>25</v>
       </c>
       <c r="I55" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J55" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>90</v>
       </c>
       <c r="K55" s="12" t="s">
         <v>22</v>
@@ -4607,22 +4568,22 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C56" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>242</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>13</v>
@@ -4631,10 +4592,10 @@
         <v>25</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K56" s="9" t="s">
         <v>22</v>
@@ -4642,16 +4603,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C57" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D57" s="11" t="s">
         <v>244</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>245</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>20</v>
@@ -4666,10 +4627,10 @@
         <v>14</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K57" s="12" t="s">
         <v>15</v>
@@ -4677,22 +4638,22 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C58" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>248</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>13</v>
@@ -4701,10 +4662,10 @@
         <v>14</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K58" s="9" t="s">
         <v>15</v>
@@ -4712,22 +4673,22 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C59" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59" s="11" t="s">
         <v>250</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>251</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>13</v>
@@ -4736,10 +4697,10 @@
         <v>14</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K59" s="12" t="s">
         <v>15</v>
@@ -4747,22 +4708,22 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C60" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>253</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>13</v>
@@ -4771,10 +4732,10 @@
         <v>14</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K60" s="9" t="s">
         <v>15</v>
@@ -4782,16 +4743,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C61" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>255</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>256</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>20</v>
@@ -4806,10 +4767,10 @@
         <v>14</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K61" s="12" t="s">
         <v>15</v>
@@ -4817,16 +4778,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C62" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>258</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>20</v>
@@ -4841,10 +4802,10 @@
         <v>14</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K62" s="9" t="s">
         <v>15</v>
@@ -4852,16 +4813,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>18</v>
@@ -4876,10 +4837,10 @@
         <v>14</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K63" s="12" t="s">
         <v>15</v>
@@ -4887,16 +4848,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C64" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>262</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>18</v>
@@ -4911,10 +4872,10 @@
         <v>14</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K64" s="9" t="s">
         <v>15</v>
@@ -4922,16 +4883,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C65" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>265</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>266</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>18</v>
@@ -4946,10 +4907,10 @@
         <v>14</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K65" s="12" t="s">
         <v>15</v>
@@ -4957,16 +4918,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C66" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>269</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>16</v>
@@ -4981,10 +4942,10 @@
         <v>14</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K66" s="9" t="s">
         <v>15</v>
@@ -4992,16 +4953,16 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C67" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D67" s="11" t="s">
         <v>270</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>271</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>16</v>
@@ -5016,7 +4977,7 @@
         <v>14</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="12" t="s">
@@ -5025,16 +4986,16 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C68" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>273</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>20</v>
@@ -5049,10 +5010,10 @@
         <v>25</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K68" s="9" t="s">
         <v>22</v>
@@ -5060,16 +5021,16 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C69" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D69" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>276</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>18</v>
@@ -5084,10 +5045,10 @@
         <v>25</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K69" s="12" t="s">
         <v>22</v>
@@ -5095,22 +5056,22 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C70" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>279</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>13</v>
@@ -5119,10 +5080,10 @@
         <v>14</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K70" s="9" t="s">
         <v>22</v>
@@ -5130,16 +5091,16 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C71" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D71" s="11" t="s">
         <v>281</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>282</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>18</v>
@@ -5154,10 +5115,10 @@
         <v>14</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K71" s="12" t="s">
         <v>22</v>
@@ -5165,16 +5126,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C72" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>285</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>18</v>
@@ -5189,10 +5150,10 @@
         <v>25</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K72" s="9" t="s">
         <v>22</v>
@@ -5200,16 +5161,16 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C73" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="D73" s="14" t="s">
         <v>286</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>287</v>
       </c>
       <c r="E73" s="14" t="s">
         <v>16</v>
@@ -5224,10 +5185,10 @@
         <v>14</v>
       </c>
       <c r="I73" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K73" s="15" t="s">
         <v>15</v>
@@ -5235,23 +5196,19 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A5:L73"/>
+  <autoFilter ref="A5:K73"/>
   <mergeCells count="2">
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N2 L5">
-      <formula1>$N$1:$N$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="Solo acepta &quot;RATIFICADO&quot; o &quot;NO VIGENTE HABILITADO&quot;" sqref="L6:L73">
-      <formula1>$N$1:$N$2</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M2">
+      <formula1>$M$1:$M$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5278,36 +5235,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
+      <c r="A2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5318,10 +5275,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -5339,36 +5296,36 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>290</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>11</v>
@@ -5377,39 +5334,39 @@
         <v>12</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>292</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>293</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>11</v>
@@ -5418,39 +5375,39 @@
         <v>12</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>296</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>18</v>
@@ -5459,80 +5416,80 @@
         <v>23</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J7" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>297</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>298</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>299</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>300</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="12"/>
     </row>
-    <row r="9" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>303</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>16</v>
@@ -5541,39 +5498,39 @@
         <v>24</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J9" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>304</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>305</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>306</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>307</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>20</v>
@@ -5582,39 +5539,39 @@
         <v>21</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>308</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>309</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>16</v>
@@ -5623,39 +5580,39 @@
         <v>24</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>312</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>16</v>
@@ -5664,39 +5621,39 @@
         <v>24</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>314</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>315</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>16</v>
@@ -5705,39 +5662,39 @@
         <v>24</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>316</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>317</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>16</v>
@@ -5746,39 +5703,39 @@
         <v>24</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>319</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>16</v>
@@ -5787,39 +5744,39 @@
         <v>24</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>321</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>322</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>16</v>
@@ -5828,39 +5785,39 @@
         <v>24</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="K16" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>324</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>325</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>16</v>
@@ -5869,39 +5826,39 @@
         <v>24</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J17" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="8" t="s">
         <v>326</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>327</v>
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>328</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>329</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>16</v>
@@ -5910,39 +5867,39 @@
         <v>24</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>332</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>16</v>
@@ -5951,22 +5908,22 @@
         <v>17</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
@@ -5974,16 +5931,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>334</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>335</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>16</v>
@@ -5992,22 +5949,22 @@
         <v>24</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -6015,16 +5972,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>338</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>16</v>
@@ -6033,22 +5990,22 @@
         <v>24</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
@@ -6056,16 +6013,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>339</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>340</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>16</v>
@@ -6074,22 +6031,22 @@
         <v>24</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -6097,40 +6054,40 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="E23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="8" t="s">
         <v>342</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>343</v>
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
@@ -6138,40 +6095,40 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -6179,40 +6136,40 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>348</v>
-      </c>
       <c r="E25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G25" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
@@ -6220,40 +6177,40 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>350</v>
-      </c>
       <c r="E26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="G26" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K26" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -6261,16 +6218,16 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>351</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>352</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>16</v>
@@ -6279,22 +6236,22 @@
         <v>24</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
@@ -6302,16 +6259,16 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>354</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>355</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>16</v>
@@ -6320,22 +6277,22 @@
         <v>24</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J28" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="11" t="s">
         <v>356</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>357</v>
       </c>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -6343,16 +6300,16 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>358</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>359</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>16</v>
@@ -6361,22 +6318,22 @@
         <v>24</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
@@ -6384,16 +6341,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C30" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>361</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>362</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>16</v>
@@ -6402,22 +6359,22 @@
         <v>24</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
@@ -6425,16 +6382,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>364</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>365</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>16</v>
@@ -6443,22 +6400,22 @@
         <v>24</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
@@ -6466,16 +6423,16 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>367</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>368</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>18</v>
@@ -6484,22 +6441,22 @@
         <v>23</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K32" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
@@ -6507,16 +6464,16 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>370</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>371</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>16</v>
@@ -6525,22 +6482,22 @@
         <v>24</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
@@ -6548,16 +6505,16 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C34" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>373</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>374</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>16</v>
@@ -6566,22 +6523,22 @@
         <v>24</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
@@ -6589,16 +6546,16 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>376</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>377</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>16</v>
@@ -6610,19 +6567,19 @@
         <v>13</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
@@ -6630,16 +6587,16 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C36" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>379</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>380</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>16</v>
@@ -6648,22 +6605,22 @@
         <v>24</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K36" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
@@ -6671,16 +6628,16 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>382</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>383</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>16</v>
@@ -6689,22 +6646,22 @@
         <v>24</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J37" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="8" t="s">
         <v>384</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>385</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
@@ -6712,16 +6669,16 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C38" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>386</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>387</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>16</v>
@@ -6730,22 +6687,22 @@
         <v>24</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K38" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
@@ -6753,40 +6710,40 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>390</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J39" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>392</v>
       </c>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
@@ -6794,16 +6751,16 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C40" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>393</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>394</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>16</v>
@@ -6815,19 +6772,19 @@
         <v>13</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K40" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
@@ -6835,40 +6792,40 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="E41" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="8" t="s">
         <v>397</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>398</v>
       </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
@@ -6876,40 +6833,40 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C42" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>399</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>400</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K42" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
@@ -6917,16 +6874,16 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>402</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>403</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>16</v>
@@ -6938,19 +6895,19 @@
         <v>13</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
@@ -6958,16 +6915,16 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>405</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>406</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>16</v>
@@ -6976,22 +6933,22 @@
         <v>17</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K44" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
@@ -6999,16 +6956,16 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>408</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>409</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>16</v>
@@ -7020,19 +6977,19 @@
         <v>13</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
@@ -7040,16 +6997,16 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>16</v>
@@ -7061,19 +7018,19 @@
         <v>13</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K46" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
@@ -7081,16 +7038,16 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C47" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>413</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>414</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>16</v>
@@ -7102,19 +7059,19 @@
         <v>13</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
@@ -7122,16 +7079,16 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C48" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>416</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>417</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>16</v>
@@ -7140,22 +7097,22 @@
         <v>24</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
@@ -7163,16 +7120,16 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>16</v>
@@ -7184,19 +7141,19 @@
         <v>13</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K49" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
@@ -7204,16 +7161,16 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C50" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>422</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>423</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>18</v>
@@ -7222,22 +7179,22 @@
         <v>23</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -7245,16 +7202,16 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>425</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>426</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>16</v>
@@ -7266,19 +7223,19 @@
         <v>13</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K51" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
@@ -7286,16 +7243,16 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>20</v>
@@ -7304,22 +7261,22 @@
         <v>21</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K52" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
@@ -7327,16 +7284,16 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C53" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>430</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>431</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>16</v>
@@ -7345,19 +7302,19 @@
         <v>24</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
@@ -7366,16 +7323,16 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>432</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>433</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>16</v>
@@ -7387,19 +7344,19 @@
         <v>13</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J54" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" s="11" t="s">
         <v>434</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>435</v>
       </c>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
@@ -7407,16 +7364,16 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C55" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>436</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>437</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>11</v>
@@ -7425,22 +7382,22 @@
         <v>12</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
@@ -7448,16 +7405,16 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C56" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="D56" s="11" t="s">
         <v>439</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>440</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>16</v>
@@ -7469,19 +7426,19 @@
         <v>13</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K56" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
@@ -7489,16 +7446,16 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>18</v>
@@ -7507,22 +7464,22 @@
         <v>23</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
@@ -7530,16 +7487,16 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C58" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>444</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>445</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>16</v>
@@ -7551,19 +7508,19 @@
         <v>13</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K58" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
@@ -7571,16 +7528,16 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C59" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>447</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>448</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>16</v>
@@ -7592,19 +7549,19 @@
         <v>13</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
@@ -7612,16 +7569,16 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>16</v>
@@ -7630,22 +7587,22 @@
         <v>24</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K60" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
@@ -7653,16 +7610,16 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C61" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>452</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>453</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>16</v>
@@ -7674,19 +7631,19 @@
         <v>13</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
@@ -7694,16 +7651,16 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C62" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>455</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>456</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>16</v>
@@ -7715,42 +7672,42 @@
         <v>13</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K62" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L62" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="M62" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="N62" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="O62" s="12" t="s">
         <v>459</v>
-      </c>
-      <c r="O62" s="12" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C63" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>461</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>462</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>16</v>
@@ -7762,19 +7719,19 @@
         <v>13</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K63" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
@@ -7782,16 +7739,16 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C64" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D64" s="11" t="s">
         <v>464</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>465</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>16</v>
@@ -7803,42 +7760,42 @@
         <v>13</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K64" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L64" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="M64" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="M64" s="11" t="s">
-        <v>467</v>
-      </c>
       <c r="N64" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="O64" s="12" t="s">
         <v>459</v>
-      </c>
-      <c r="O64" s="12" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>16</v>
@@ -7847,19 +7804,19 @@
         <v>24</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
@@ -7868,16 +7825,16 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C66" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="D66" s="11" t="s">
         <v>470</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>471</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>16</v>
@@ -7886,19 +7843,19 @@
         <v>24</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
@@ -7907,16 +7864,16 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C67" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>472</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>473</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>16</v>
@@ -7928,19 +7885,19 @@
         <v>13</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K67" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
@@ -7948,16 +7905,16 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C68" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>475</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>476</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>16</v>
@@ -7969,19 +7926,19 @@
         <v>13</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K68" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L68" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
@@ -7989,16 +7946,16 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C69" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>478</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>479</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>16</v>
@@ -8007,22 +7964,22 @@
         <v>24</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K69" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
@@ -8030,16 +7987,16 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C70" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="D70" s="11" t="s">
         <v>481</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>482</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>16</v>
@@ -8051,19 +8008,19 @@
         <v>13</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J70" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" s="11" t="s">
         <v>483</v>
-      </c>
-      <c r="K70" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L70" s="11" t="s">
-        <v>484</v>
       </c>
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
@@ -8071,16 +8028,16 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C71" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>485</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>486</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>18</v>
@@ -8089,45 +8046,45 @@
         <v>23</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K71" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L71" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="M71" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="M71" s="8" t="s">
-        <v>488</v>
-      </c>
       <c r="N71" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="O71" s="9" t="s">
         <v>459</v>
-      </c>
-      <c r="O71" s="9" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C72" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>489</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>490</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>18</v>
@@ -8136,22 +8093,22 @@
         <v>23</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K72" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L72" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
@@ -8159,16 +8116,16 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C73" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>492</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>493</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>16</v>
@@ -8177,22 +8134,22 @@
         <v>24</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K73" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
@@ -8200,16 +8157,16 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>16</v>
@@ -8221,19 +8178,19 @@
         <v>13</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J74" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L74" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="K74" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L74" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -8241,16 +8198,16 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>16</v>
@@ -8262,19 +8219,19 @@
         <v>13</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K75" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
@@ -8282,40 +8239,40 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C76" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>498</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>499</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I76" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="J76" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="J76" s="11" t="s">
+      <c r="K76" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L76" s="11" t="s">
         <v>501</v>
-      </c>
-      <c r="K76" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L76" s="11" t="s">
-        <v>502</v>
       </c>
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
@@ -8323,40 +8280,40 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C77" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="D77" s="8" t="s">
         <v>503</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>504</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J77" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" s="8" t="s">
         <v>501</v>
-      </c>
-      <c r="K77" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L77" s="8" t="s">
-        <v>502</v>
       </c>
       <c r="M77" s="8"/>
       <c r="N77" s="8"/>
@@ -8364,16 +8321,16 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C78" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D78" s="11" t="s">
         <v>505</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>506</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>18</v>
@@ -8385,42 +8342,42 @@
         <v>13</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L78" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="M78" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="M78" s="11" t="s">
-        <v>508</v>
-      </c>
       <c r="N78" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="O78" s="12" t="s">
         <v>459</v>
-      </c>
-      <c r="O78" s="12" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C79" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="D79" s="8" t="s">
         <v>509</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>510</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>18</v>
@@ -8432,19 +8389,19 @@
         <v>13</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K79" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M79" s="8"/>
       <c r="N79" s="8"/>
@@ -8452,16 +8409,16 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C80" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D80" s="11" t="s">
         <v>511</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>512</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>18</v>
@@ -8473,19 +8430,19 @@
         <v>13</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K80" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L80" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
@@ -8493,16 +8450,16 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C81" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="D81" s="8" t="s">
         <v>513</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>514</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>16</v>
@@ -8514,16 +8471,16 @@
         <v>13</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L81" s="8"/>
       <c r="M81" s="8"/>
@@ -8532,16 +8489,16 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>16</v>
@@ -8550,92 +8507,92 @@
         <v>24</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K82" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L82" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="M82" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="M82" s="11" t="s">
-        <v>517</v>
-      </c>
       <c r="N82" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="O82" s="12" t="s">
         <v>459</v>
-      </c>
-      <c r="O82" s="12" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E83" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F83" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="G83" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K83" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L83" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="M83" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="M83" s="8" t="s">
-        <v>520</v>
-      </c>
       <c r="N83" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="O83" s="9" t="s">
         <v>459</v>
-      </c>
-      <c r="O83" s="9" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C84" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="D84" s="11" t="s">
         <v>521</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>522</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>18</v>
@@ -8647,19 +8604,19 @@
         <v>13</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
@@ -8667,16 +8624,16 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C85" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D85" s="8" t="s">
         <v>524</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>16</v>
@@ -8688,19 +8645,19 @@
         <v>13</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K85" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
@@ -8708,16 +8665,16 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C86" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>527</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>528</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>20</v>
@@ -8729,19 +8686,19 @@
         <v>13</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K86" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L86" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
@@ -8749,16 +8706,16 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C87" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="D87" s="8" t="s">
         <v>530</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>531</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>20</v>
@@ -8770,19 +8727,19 @@
         <v>13</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K87" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M87" s="8"/>
       <c r="N87" s="8"/>
@@ -8790,16 +8747,16 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>16</v>
@@ -8808,45 +8765,45 @@
         <v>24</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J88" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K88" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L88" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="M88" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="M88" s="11" t="s">
+      <c r="N88" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="N88" s="11" t="s">
+      <c r="O88" s="12" t="s">
         <v>536</v>
-      </c>
-      <c r="O88" s="12" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C89" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="D89" s="8" t="s">
         <v>538</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>539</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>16</v>
@@ -8855,22 +8812,22 @@
         <v>24</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K89" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M89" s="8"/>
       <c r="N89" s="8"/>
@@ -8878,16 +8835,16 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>18</v>
@@ -8896,22 +8853,22 @@
         <v>19</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J90" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L90" s="11" t="s">
         <v>542</v>
-      </c>
-      <c r="K90" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L90" s="11" t="s">
-        <v>543</v>
       </c>
       <c r="M90" s="11"/>
       <c r="N90" s="11"/>
@@ -8919,61 +8876,61 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C91" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="D91" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="E91" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J91" s="8" t="s">
         <v>545</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I91" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J91" s="8" t="s">
-        <v>546</v>
       </c>
       <c r="K91" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L91" s="8"/>
       <c r="M91" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O91" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C92" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="D92" s="11" t="s">
         <v>548</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>549</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>11</v>
@@ -8985,16 +8942,16 @@
         <v>13</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J92" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K92" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
@@ -9003,40 +8960,40 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C93" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="D93" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="D93" s="8" t="s">
-        <v>551</v>
-      </c>
       <c r="E93" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F93" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F93" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G93" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K93" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M93" s="8"/>
       <c r="N93" s="8"/>
@@ -9044,16 +9001,16 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>16</v>
@@ -9062,22 +9019,22 @@
         <v>24</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J94" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K94" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L94" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M94" s="11"/>
       <c r="N94" s="11"/>
@@ -9085,40 +9042,40 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C95" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="D95" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="D95" s="8" t="s">
-        <v>556</v>
-      </c>
       <c r="E95" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F95" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F95" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G95" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M95" s="8"/>
       <c r="N95" s="8"/>
@@ -9126,16 +9083,16 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>18</v>
@@ -9147,19 +9104,19 @@
         <v>13</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J96" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K96" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L96" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M96" s="11"/>
       <c r="N96" s="11"/>
@@ -9167,16 +9124,16 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C97" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="D97" s="8" t="s">
         <v>560</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>561</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>16</v>
@@ -9188,19 +9145,19 @@
         <v>13</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K97" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M97" s="8"/>
       <c r="N97" s="8"/>
@@ -9208,16 +9165,16 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C98" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="D98" s="11" t="s">
         <v>563</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>564</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>18</v>
@@ -9226,22 +9183,22 @@
         <v>23</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J98" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K98" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L98" s="11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
@@ -9249,40 +9206,40 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C99" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D99" s="8" t="s">
         <v>566</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>567</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K99" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M99" s="8"/>
       <c r="N99" s="8"/>
@@ -9290,40 +9247,40 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C100" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="D100" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="D100" s="11" t="s">
-        <v>570</v>
-      </c>
       <c r="E100" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J100" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K100" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L100" s="11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
@@ -9331,16 +9288,16 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>16</v>
@@ -9349,22 +9306,22 @@
         <v>24</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K101" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M101" s="8"/>
       <c r="N101" s="8"/>
@@ -9372,16 +9329,16 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C102" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="D102" s="11" t="s">
         <v>574</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>575</v>
       </c>
       <c r="E102" s="11" t="s">
         <v>11</v>
@@ -9390,22 +9347,22 @@
         <v>12</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J102" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K102" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L102" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
@@ -9413,16 +9370,16 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>16</v>
@@ -9431,22 +9388,22 @@
         <v>24</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K103" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M103" s="8"/>
       <c r="N103" s="8"/>
@@ -9454,40 +9411,40 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C104" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="D104" s="11" t="s">
         <v>579</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>580</v>
       </c>
       <c r="E104" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K104" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M104" s="11"/>
       <c r="N104" s="11"/>
@@ -9495,16 +9452,16 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C105" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="D105" s="8" t="s">
         <v>582</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>583</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>16</v>
@@ -9516,19 +9473,19 @@
         <v>13</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K105" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M105" s="8"/>
       <c r="N105" s="8"/>
@@ -9536,16 +9493,16 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>16</v>
@@ -9557,19 +9514,19 @@
         <v>13</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J106" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="K106" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L106" s="11" t="s">
         <v>586</v>
-      </c>
-      <c r="K106" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L106" s="11" t="s">
-        <v>587</v>
       </c>
       <c r="M106" s="11"/>
       <c r="N106" s="11"/>
@@ -9577,16 +9534,16 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>16</v>
@@ -9598,19 +9555,19 @@
         <v>13</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K107" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M107" s="8"/>
       <c r="N107" s="8"/>
@@ -9618,16 +9575,16 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C108" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="D108" s="11" t="s">
         <v>590</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>591</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>16</v>
@@ -9639,19 +9596,19 @@
         <v>13</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J108" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K108" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L108" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M108" s="11"/>
       <c r="N108" s="11"/>
@@ -9659,16 +9616,16 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C109" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="D109" s="8" t="s">
         <v>593</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>594</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>16</v>
@@ -9680,19 +9637,19 @@
         <v>13</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J109" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K109" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L109" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M109" s="8"/>
       <c r="N109" s="8"/>
@@ -9700,16 +9657,16 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C110" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="D110" s="11" t="s">
         <v>596</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>597</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>16</v>
@@ -9721,19 +9678,19 @@
         <v>13</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J110" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K110" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L110" s="11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M110" s="11"/>
       <c r="N110" s="11"/>
@@ -9741,16 +9698,16 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C111" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="D111" s="8" t="s">
         <v>599</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>600</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>16</v>
@@ -9759,22 +9716,22 @@
         <v>17</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K111" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L111" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M111" s="8"/>
       <c r="N111" s="8"/>
@@ -9782,16 +9739,16 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C112" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="D112" s="11" t="s">
         <v>602</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>603</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>16</v>
@@ -9800,22 +9757,22 @@
         <v>24</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J112" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K112" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L112" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M112" s="11"/>
       <c r="N112" s="11"/>
@@ -9823,16 +9780,16 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C113" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="D113" s="8" t="s">
         <v>605</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>606</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>16</v>
@@ -9844,19 +9801,19 @@
         <v>13</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K113" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L113" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M113" s="8"/>
       <c r="N113" s="8"/>
@@ -9864,16 +9821,16 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C114" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="D114" s="11" t="s">
         <v>608</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>609</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>18</v>
@@ -9885,19 +9842,19 @@
         <v>13</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J114" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K114" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L114" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M114" s="11"/>
       <c r="N114" s="11"/>
@@ -9905,16 +9862,16 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C115" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D115" s="8" t="s">
         <v>611</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>612</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>26</v>
@@ -9926,19 +9883,19 @@
         <v>13</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K115" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M115" s="8"/>
       <c r="N115" s="8"/>
@@ -9946,61 +9903,61 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C116" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="D116" s="11" t="s">
         <v>614</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>615</v>
       </c>
       <c r="E116" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J116" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K116" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L116" s="11"/>
       <c r="M116" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="N116" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="O116" s="12" t="s">
         <v>617</v>
-      </c>
-      <c r="N116" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="O116" s="12" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>16</v>
@@ -10009,43 +9966,43 @@
         <v>24</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J117" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K117" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L117" s="8"/>
       <c r="M117" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="N117" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="O117" s="9" t="s">
         <v>621</v>
-      </c>
-      <c r="N117" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="O117" s="9" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C118" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="D118" s="11" t="s">
         <v>623</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>624</v>
       </c>
       <c r="E118" s="11" t="s">
         <v>16</v>
@@ -10057,73 +10014,73 @@
         <v>13</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J118" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K118" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L118" s="11"/>
       <c r="M118" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="N118" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="O118" s="12" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C119" s="17" t="s">
         <v>625</v>
       </c>
-      <c r="N118" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="O118" s="12" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A119" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B119" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C119" s="19" t="s">
+      <c r="D119" s="17" t="s">
         <v>626</v>
       </c>
-      <c r="D119" s="19" t="s">
+      <c r="E119" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G119" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I119" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J119" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="E119" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F119" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G119" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I119" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="J119" s="19" t="s">
+      <c r="K119" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L119" s="17" t="s">
         <v>628</v>
       </c>
-      <c r="K119" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L119" s="19" t="s">
+      <c r="M119" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="M119" s="19" t="s">
+      <c r="N119" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="O119" s="18" t="s">
         <v>630</v>
-      </c>
-      <c r="N119" s="19" t="s">
-        <v>628</v>
-      </c>
-      <c r="O119" s="20" t="s">
-        <v>631</v>
       </c>
     </row>
   </sheetData>
